--- a/reports/resnet18_23_no_MMTM/prediction/4/probability_train_4.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/4/probability_train_4.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2988446950912476</v>
+        <v>0.2458620667457581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7011553049087524</v>
+        <v>0.7541379332542419</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08937640488147736</v>
+        <v>0.07550235092639923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9106235504150391</v>
+        <v>0.924497663974762</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1131902486085892</v>
+        <v>0.1164631396532059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8868097066879272</v>
+        <v>0.8835368752479553</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1390052735805511</v>
+        <v>0.2057877480983734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8609946966171265</v>
+        <v>0.7942122220993042</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09616687893867493</v>
+        <v>0.1438701152801514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9038331508636475</v>
+        <v>0.8561298847198486</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3179454803466797</v>
+        <v>0.2553070187568665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6820545196533203</v>
+        <v>0.7446929216384888</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1426172256469727</v>
+        <v>0.05441834777593613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8573827743530273</v>
+        <v>0.9455816745758057</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4696653485298157</v>
+        <v>0.6713113784790039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5303345918655396</v>
+        <v>0.3286886215209961</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9837909936904907</v>
+        <v>0.9503599405288696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01620902121067047</v>
+        <v>0.04964009672403336</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1986309736967087</v>
+        <v>0.1416554003953934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8013690710067749</v>
+        <v>0.858344554901123</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1464111059904099</v>
+        <v>0.3289262652397156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.853588879108429</v>
+        <v>0.6710737943649292</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1109005510807037</v>
+        <v>0.1386424452066422</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8890994787216187</v>
+        <v>0.861357569694519</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.289962500333786</v>
+        <v>0.4989796280860901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7100374698638916</v>
+        <v>0.5010203719139099</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2110975831747055</v>
+        <v>0.3351423740386963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7889024019241333</v>
+        <v>0.6648576259613037</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9307553172111511</v>
+        <v>0.8929412364959717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06924469769001007</v>
+        <v>0.1070587486028671</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.872535228729248</v>
+        <v>0.9139748811721802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1274647861719131</v>
+        <v>0.08602512627840042</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3990192711353302</v>
+        <v>0.4687335789203644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6009806990623474</v>
+        <v>0.531266450881958</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9265688061714172</v>
+        <v>0.9250673055648804</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07343115657567978</v>
+        <v>0.07493271678686142</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1398885399103165</v>
+        <v>0.2674348950386047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8601114749908447</v>
+        <v>0.7325651049613953</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2793204784393311</v>
+        <v>0.4831064343452454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7206795215606689</v>
+        <v>0.5168935060501099</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2370111048221588</v>
+        <v>0.1836691796779633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7629889249801636</v>
+        <v>0.8163307905197144</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1849656701087952</v>
+        <v>0.3705061972141266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8150343298912048</v>
+        <v>0.6294938325881958</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1321547329425812</v>
+        <v>0.08280558884143829</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8678452372550964</v>
+        <v>0.9171943664550781</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6963124871253967</v>
+        <v>0.7213457822799683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3036874830722809</v>
+        <v>0.2786542177200317</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1714948415756226</v>
+        <v>0.3274542987346649</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8285051584243774</v>
+        <v>0.6725457310676575</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1866566836833954</v>
+        <v>0.2238221764564514</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8133432865142822</v>
+        <v>0.7761777639389038</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.887499213218689</v>
+        <v>0.702459454536438</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1125007495284081</v>
+        <v>0.297540545463562</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.672368049621582</v>
+        <v>0.7308636903762817</v>
       </c>
       <c r="C29" t="n">
-        <v>0.327631950378418</v>
+        <v>0.2691363096237183</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1863090395927429</v>
+        <v>0.2207235097885132</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8136910200119019</v>
+        <v>0.7792764902114868</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1399918496608734</v>
+        <v>0.3355998396873474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.860008180141449</v>
+        <v>0.6644001007080078</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2455127984285355</v>
+        <v>0.1775008589029312</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7544872164726257</v>
+        <v>0.82249915599823</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.279888242483139</v>
+        <v>0.2006285786628723</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7201117277145386</v>
+        <v>0.7993714213371277</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9742573499679565</v>
+        <v>0.949738621711731</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02574263699352741</v>
+        <v>0.05026137083768845</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3245105445384979</v>
+        <v>0.2740377485752106</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6754894852638245</v>
+        <v>0.7259622812271118</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1778485774993896</v>
+        <v>0.1066274791955948</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8221514225006104</v>
+        <v>0.8933724761009216</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2300209999084473</v>
+        <v>0.2556928098201752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.769978940486908</v>
+        <v>0.7443072199821472</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1606390923261642</v>
+        <v>0.4003319442272186</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8393608927726746</v>
+        <v>0.599668025970459</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3665859699249268</v>
+        <v>0.4120863080024719</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6334140300750732</v>
+        <v>0.5879137516021729</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3163585960865021</v>
+        <v>0.2300756275653839</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6836414337158203</v>
+        <v>0.7699243426322937</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1578171849250793</v>
+        <v>0.2666222453117371</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8421827554702759</v>
+        <v>0.7333778142929077</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8879458904266357</v>
+        <v>0.9349588751792908</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1120540723204613</v>
+        <v>0.06504108011722565</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3006488680839539</v>
+        <v>0.3761564493179321</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6993511319160461</v>
+        <v>0.6238435506820679</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1027622818946838</v>
+        <v>0.07468656450510025</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8972377777099609</v>
+        <v>0.925313413143158</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2948057055473328</v>
+        <v>0.4759126305580139</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7051942944526672</v>
+        <v>0.5240873694419861</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2742465436458588</v>
+        <v>0.3218133449554443</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7257534861564636</v>
+        <v>0.6781866550445557</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.09250376373529434</v>
+        <v>0.0236237645149231</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9074962139129639</v>
+        <v>0.9763762950897217</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.200823187828064</v>
+        <v>0.1986249983310699</v>
       </c>
       <c r="C48" t="n">
-        <v>0.799176812171936</v>
+        <v>0.8013750314712524</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3177932500839233</v>
+        <v>0.3134328722953796</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6822067499160767</v>
+        <v>0.6865670680999756</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1206707656383514</v>
+        <v>0.1036929339170456</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8793292045593262</v>
+        <v>0.8963070511817932</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9432421922683716</v>
+        <v>0.8588200807571411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05675777792930603</v>
+        <v>0.1411799192428589</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.36460080742836</v>
+        <v>0.515626847743988</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6353992223739624</v>
+        <v>0.484373152256012</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2119176685810089</v>
+        <v>0.3481819629669189</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7880823016166687</v>
+        <v>0.6518180370330811</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2037430107593536</v>
+        <v>0.1638335287570953</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7962570190429688</v>
+        <v>0.8361665010452271</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.216004341840744</v>
+        <v>0.3354591727256775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7839956283569336</v>
+        <v>0.6645407676696777</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4625619351863861</v>
+        <v>0.5964488387107849</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5374380350112915</v>
+        <v>0.4035511612892151</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2911633849143982</v>
+        <v>0.4936724901199341</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7088366746902466</v>
+        <v>0.5063275098800659</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1142863184213638</v>
+        <v>0.09056171774864197</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8857136964797974</v>
+        <v>0.9094383120536804</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.7711054086685181</v>
+        <v>0.766821026802063</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2288946211338043</v>
+        <v>0.2331789880990982</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2231596410274506</v>
+        <v>0.3052664399147034</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7768403291702271</v>
+        <v>0.6947335004806519</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5203663110733032</v>
+        <v>0.8341966867446899</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4796336889266968</v>
+        <v>0.1658032685518265</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.06367607414722443</v>
+        <v>0.07801984250545502</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9363240003585815</v>
+        <v>0.9219801425933838</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3956730961799622</v>
+        <v>0.3949260711669922</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6043269038200378</v>
+        <v>0.6050739288330078</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1492888778448105</v>
+        <v>0.3401474952697754</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8507111072540283</v>
+        <v>0.6598525047302246</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9565057158470154</v>
+        <v>0.8747683763504028</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04349430650472641</v>
+        <v>0.1252316683530807</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1138221397995949</v>
+        <v>0.09265965223312378</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8861778378486633</v>
+        <v>0.9073403477668762</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1517134010791779</v>
+        <v>0.3396143615245819</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8482866287231445</v>
+        <v>0.6603856086730957</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8402663469314575</v>
+        <v>0.8910106420516968</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1597336828708649</v>
+        <v>0.1089893877506256</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.07900238782167435</v>
+        <v>0.07587986439466476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9209976196289062</v>
+        <v>0.9241201877593994</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9782680869102478</v>
+        <v>0.9535712599754333</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02173186652362347</v>
+        <v>0.04642868787050247</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8123125433921814</v>
+        <v>0.7765111923217773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1876874566078186</v>
+        <v>0.2234887480735779</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3101698160171509</v>
+        <v>0.1554281115531921</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6898301839828491</v>
+        <v>0.8445719480514526</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08244866877794266</v>
+        <v>0.103850744664669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9175513982772827</v>
+        <v>0.8961492776870728</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08351574838161469</v>
+        <v>0.1244535148143768</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9164842367172241</v>
+        <v>0.8755464553833008</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08264243602752686</v>
+        <v>0.0624363012611866</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9173575639724731</v>
+        <v>0.9375636577606201</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4647974967956543</v>
+        <v>0.4596295058727264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5352025032043457</v>
+        <v>0.5403705239295959</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9735232591629028</v>
+        <v>0.9142491817474365</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02647678181529045</v>
+        <v>0.08575078845024109</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5821811556816101</v>
+        <v>0.6871659755706787</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4178188145160675</v>
+        <v>0.3128341138362885</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1398700922727585</v>
+        <v>0.3124693036079407</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8601298928260803</v>
+        <v>0.6875307559967041</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1195563077926636</v>
+        <v>0.1022641137242317</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8804436922073364</v>
+        <v>0.8977358341217041</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9918109774589539</v>
+        <v>0.937843382358551</v>
       </c>
       <c r="C81" t="n">
-        <v>0.008189031854271889</v>
+        <v>0.06215666234493256</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5091494917869568</v>
+        <v>0.4933492541313171</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4908504486083984</v>
+        <v>0.5066508054733276</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.7538394927978516</v>
+        <v>0.5819963812828064</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246160477399826</v>
+        <v>0.4180036187171936</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6240033507347107</v>
+        <v>0.7056680917739868</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3759966194629669</v>
+        <v>0.2943318784236908</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3164917528629303</v>
+        <v>0.2504944205284119</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6835082769393921</v>
+        <v>0.7495055198669434</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3095628917217255</v>
+        <v>0.4609828293323517</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6904370784759521</v>
+        <v>0.5390170812606812</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4713407754898071</v>
+        <v>0.5485742688179016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5286592245101929</v>
+        <v>0.4514257311820984</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6858510971069336</v>
+        <v>0.6406721472740173</v>
       </c>
       <c r="C88" t="n">
-        <v>0.314148873090744</v>
+        <v>0.3593278825283051</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0762648731470108</v>
+        <v>0.07543710619211197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9237351417541504</v>
+        <v>0.924562931060791</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4647881388664246</v>
+        <v>0.5814175605773926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5352119207382202</v>
+        <v>0.4185824990272522</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2137673497200012</v>
+        <v>0.3217215240001678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7862326502799988</v>
+        <v>0.6782784461975098</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2631412446498871</v>
+        <v>0.246238112449646</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7368587255477905</v>
+        <v>0.753761887550354</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.07530640810728073</v>
+        <v>0.1222551763057709</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9246935844421387</v>
+        <v>0.8777448534965515</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4095960259437561</v>
+        <v>0.6375466585159302</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904039740562439</v>
+        <v>0.3624533414840698</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1807360500097275</v>
+        <v>0.2558115720748901</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8192639350891113</v>
+        <v>0.7441884279251099</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9259091019630432</v>
+        <v>0.8671764135360718</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07409089803695679</v>
+        <v>0.1328236311674118</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1134470850229263</v>
+        <v>0.09630276262760162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8865529298782349</v>
+        <v>0.9036972522735596</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1283769607543945</v>
+        <v>0.2316315323114395</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8716230392456055</v>
+        <v>0.7683684825897217</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.08284514397382736</v>
+        <v>0.1220326125621796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.917154848575592</v>
+        <v>0.877967357635498</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.09038226306438446</v>
+        <v>0.03460652381181717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9096176624298096</v>
+        <v>0.9653934836387634</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1430459916591644</v>
+        <v>0.1843072772026062</v>
       </c>
       <c r="C101" t="n">
-        <v>0.856954038143158</v>
+        <v>0.8156927227973938</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1152368783950806</v>
+        <v>0.07891744375228882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8847631216049194</v>
+        <v>0.9210825562477112</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.973660409450531</v>
+        <v>0.9351701736450195</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02633955515921116</v>
+        <v>0.06482978165149689</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1477522104978561</v>
+        <v>0.3998104929924011</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8522477746009827</v>
+        <v>0.6001894474029541</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1453187465667725</v>
+        <v>0.2702904045581818</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8546812534332275</v>
+        <v>0.7297096252441406</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5310024619102478</v>
+        <v>0.4163561463356018</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4689975678920746</v>
+        <v>0.5836438536643982</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.09493990987539291</v>
+        <v>0.1814019381999969</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9050600528717041</v>
+        <v>0.8185980319976807</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1014072820544243</v>
+        <v>0.1278785765171051</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8985927104949951</v>
+        <v>0.8721213936805725</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1647977530956268</v>
+        <v>0.06672623753547668</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8352022171020508</v>
+        <v>0.9332737922668457</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9808288216590881</v>
+        <v>0.9265908002853394</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01917118392884731</v>
+        <v>0.07340916246175766</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3941354155540466</v>
+        <v>0.5929886102676392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6058645248413086</v>
+        <v>0.4070113599300385</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.09967253357172012</v>
+        <v>0.1244597136974335</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9003274440765381</v>
+        <v>0.8755402565002441</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.06743160635232925</v>
+        <v>0.1721319854259491</v>
       </c>
       <c r="C113" t="n">
-        <v>0.932568371295929</v>
+        <v>0.8278679847717285</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.270320326089859</v>
+        <v>0.3674729764461517</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7296797037124634</v>
+        <v>0.6325269937515259</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.450404942035675</v>
+        <v>0.4465051889419556</v>
       </c>
       <c r="C115" t="n">
-        <v>0.549595057964325</v>
+        <v>0.5534948110580444</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.5765093564987183</v>
+        <v>0.4526414573192596</v>
       </c>
       <c r="C116" t="n">
-        <v>0.423490583896637</v>
+        <v>0.547358512878418</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1163699775934219</v>
+        <v>0.1042718961834908</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8836300373077393</v>
+        <v>0.8957281112670898</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9532835483551025</v>
+        <v>0.9412496089935303</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04671644419431686</v>
+        <v>0.05875035747885704</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1313695013523102</v>
+        <v>0.152238130569458</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8686305284500122</v>
+        <v>0.847761869430542</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.8786150217056274</v>
+        <v>0.83537757396698</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1213849484920502</v>
+        <v>0.1646224856376648</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.09121721237897873</v>
+        <v>0.1155440509319305</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9087828397750854</v>
+        <v>0.8844559788703918</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3049611449241638</v>
+        <v>0.2965052723884583</v>
       </c>
       <c r="C122" t="n">
-        <v>0.695038914680481</v>
+        <v>0.7034947276115417</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.09635152667760849</v>
+        <v>0.1013438776135445</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9036484956741333</v>
+        <v>0.8986561298370361</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.5009414553642273</v>
+        <v>0.5140924453735352</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4990585446357727</v>
+        <v>0.4859075844287872</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6163785457611084</v>
+        <v>0.627509593963623</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3836214542388916</v>
+        <v>0.3724904656410217</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.2040904015302658</v>
+        <v>0.1813102066516876</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7959096431732178</v>
+        <v>0.8186898231506348</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.243069052696228</v>
+        <v>0.4278450906276703</v>
       </c>
       <c r="C127" t="n">
-        <v>0.756930947303772</v>
+        <v>0.5721548795700073</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.954021692276001</v>
+        <v>0.9510177373886108</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04597824066877365</v>
+        <v>0.04898222908377647</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.4846038222312927</v>
+        <v>0.4482211470603943</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5153961777687073</v>
+        <v>0.5517789125442505</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5306326150894165</v>
+        <v>0.6202262043952942</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4693674147129059</v>
+        <v>0.3797737956047058</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.167831152677536</v>
+        <v>0.1440822780132294</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8321688771247864</v>
+        <v>0.8559176921844482</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2267753183841705</v>
+        <v>0.6252263784408569</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7732246518135071</v>
+        <v>0.3747736215591431</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.07870011776685715</v>
+        <v>0.05564576759934425</v>
       </c>
       <c r="C133" t="n">
-        <v>0.921299934387207</v>
+        <v>0.9443542957305908</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3891220092773438</v>
+        <v>0.5955553650856018</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6108779907226562</v>
+        <v>0.4044446349143982</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.5128173828125</v>
+        <v>0.568182110786438</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4871826171875</v>
+        <v>0.431817889213562</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.2498835176229477</v>
+        <v>0.1993783563375473</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7501164674758911</v>
+        <v>0.8006216287612915</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2984318733215332</v>
+        <v>0.2047085464000702</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7015681266784668</v>
+        <v>0.7952914834022522</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9831236600875854</v>
+        <v>0.9701745510101318</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01687639020383358</v>
+        <v>0.0298254732042551</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1461614072322845</v>
+        <v>0.3558858633041382</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8538385629653931</v>
+        <v>0.644114077091217</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1373039782047272</v>
+        <v>0.1832564920186996</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8626960515975952</v>
+        <v>0.8167434930801392</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.3208903670310974</v>
+        <v>0.3656344413757324</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6791096925735474</v>
+        <v>0.6343654990196228</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9715448617935181</v>
+        <v>0.9312169551849365</v>
       </c>
       <c r="C142" t="n">
-        <v>0.02845509722828865</v>
+        <v>0.06878305226564407</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2498342394828796</v>
+        <v>0.3151847422122955</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7501657605171204</v>
+        <v>0.6848152875900269</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9613776803016663</v>
+        <v>0.9193041920661926</v>
       </c>
       <c r="C144" t="n">
-        <v>0.03862233459949493</v>
+        <v>0.08069576323032379</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.09914965182542801</v>
+        <v>0.1222151964902878</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9008504152297974</v>
+        <v>0.8777848482131958</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.40988689661026</v>
+        <v>0.6768251657485962</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5901130437850952</v>
+        <v>0.3231748342514038</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4766038656234741</v>
+        <v>0.6960797309875488</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5233960747718811</v>
+        <v>0.3039203286170959</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.3701120615005493</v>
+        <v>0.4404553771018982</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6298879384994507</v>
+        <v>0.5595446228981018</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.131191611289978</v>
+        <v>0.07875281572341919</v>
       </c>
       <c r="C149" t="n">
-        <v>0.868808388710022</v>
+        <v>0.9212471842765808</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6589086651802063</v>
+        <v>0.8888423442840576</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3410913944244385</v>
+        <v>0.1111576780676842</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1068515703082085</v>
+        <v>0.120122991502285</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8931484222412109</v>
+        <v>0.879876971244812</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2021575272083282</v>
+        <v>0.2881295680999756</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7978425025939941</v>
+        <v>0.7118704319000244</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9173237085342407</v>
+        <v>0.8640067577362061</v>
       </c>
       <c r="C153" t="n">
-        <v>0.08267627656459808</v>
+        <v>0.1359932422637939</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.09570284187793732</v>
+        <v>0.1179529875516891</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9042971730232239</v>
+        <v>0.8820470571517944</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.07283349335193634</v>
+        <v>0.1714910864830017</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9271665215492249</v>
+        <v>0.8285088539123535</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1761806756258011</v>
+        <v>0.2550346553325653</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8238193392753601</v>
+        <v>0.7449653148651123</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0857740044593811</v>
+        <v>0.0797589123249054</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9142260551452637</v>
+        <v>0.920241117477417</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9430978298187256</v>
+        <v>0.899463415145874</v>
       </c>
       <c r="C158" t="n">
-        <v>0.05690217018127441</v>
+        <v>0.1005365997552872</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.6475272178649902</v>
+        <v>0.7166640758514404</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3524727523326874</v>
+        <v>0.2833359241485596</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1547839045524597</v>
+        <v>0.2013245075941086</v>
       </c>
       <c r="C160" t="n">
-        <v>0.8452161550521851</v>
+        <v>0.7986754775047302</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1005125269293785</v>
+        <v>0.06138221174478531</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8994874954223633</v>
+        <v>0.9386178255081177</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.278247594833374</v>
+        <v>0.3925066888332367</v>
       </c>
       <c r="C162" t="n">
-        <v>0.721752405166626</v>
+        <v>0.6074933409690857</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.1863823980093002</v>
+        <v>0.2095717489719391</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8136175870895386</v>
+        <v>0.7904282212257385</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1298657804727554</v>
+        <v>0.2411938160657883</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8701342344284058</v>
+        <v>0.7588061690330505</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.5973697304725647</v>
+        <v>0.6593245267868042</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4026302397251129</v>
+        <v>0.3406754732131958</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.08177336305379868</v>
+        <v>0.03629659488797188</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9182265996932983</v>
+        <v>0.963703453540802</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2718676924705505</v>
+        <v>0.3026131987571716</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7281323075294495</v>
+        <v>0.6973868012428284</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9674528837203979</v>
+        <v>0.828885555267334</v>
       </c>
       <c r="C168" t="n">
-        <v>0.03254705294966698</v>
+        <v>0.1711144149303436</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.07132120430469513</v>
+        <v>0.07359018921852112</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9286788105964661</v>
+        <v>0.9264097809791565</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9756112098693848</v>
+        <v>0.9464713335037231</v>
       </c>
       <c r="C170" t="n">
-        <v>0.02438880316913128</v>
+        <v>0.05352862179279327</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.5373913645744324</v>
+        <v>0.5923995971679688</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4626086950302124</v>
+        <v>0.4076004326343536</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1503272354602814</v>
+        <v>0.1041032373905182</v>
       </c>
       <c r="C172" t="n">
-        <v>0.849672794342041</v>
+        <v>0.8958967924118042</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.1666494458913803</v>
+        <v>0.162166953086853</v>
       </c>
       <c r="C173" t="n">
-        <v>0.8333505392074585</v>
+        <v>0.837833046913147</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
